--- a/Work_List.xlsx
+++ b/Work_List.xlsx
@@ -8,24 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxidesign\Desktop\작업\광대\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE085DED-55FF-4BF9-A216-0443B3612ECE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F69DAF-CD88-4D62-8B13-A8DE182D9D04}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -141,6 +146,275 @@
   </si>
   <si>
     <t>window.addEventListener 에서 누락된 함수 채워줌(레파토리head.php 를 참고함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/product/analy_prd.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/product/order_list.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_drderlist_wrap div 에 대여목록 추가 value(RT)
+RT라면 배송완료된 물품중에
+검색날짜안에 보낸날짜 나 돌려받는날짜가 포함된다면 표시
+(조팀장님 한태 쿼리 검수 받을것) =&gt; 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품그룹 td 최다판매,최대매출 추가
+최대판매,최대 매출일때 if문으로 sql구문 생성
+최대판매 = (주문수 +배송완료) 높은순
+최대매출 = ( (주문수 + 배송완료) * 가격 ) 높은순
+(조팀장님 한태 쿼리 검수 받을것!) =&gt; 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/product/prd_inout.php 생성(1)
+left_aera.php (2)
+adm/manage/pruduct/inout_input.php 생성 (3)
+adm/manage/product/inout_save.php 생성(4)
+DB wiz_product_inout 테이블 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번 10번이랑 공동작업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>child/inc/footer.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 상품관리안에 li추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-list 안에 li추가
+mete&lt;viewport&gt; 없애는 스크립트 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 사각형 영역에 배송시 요청사항 추가.</t>
+  </si>
+  <si>
+    <t>adm/product/order_info.inc</t>
+  </si>
+  <si>
+    <t>배송사항을 입력안했스면 표시가안되게 조건문이 걸려있었음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쇼핑몰관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌측메뉴들중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사각형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박스친곳들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>셀렉옵션들이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쫙펴짐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상작동할수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>option 태그가 안닫혀있는것들 닫아줬음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/product/analy_prd.php
+adm/manage/product/prd_estimate.php
+adm/manage/product/tax_list.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품통계분석페이지에 총매출액 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총매출액 a=href 생성 그에따른 부가적인 변수 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +426,7 @@
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일(&quot;aaa&quot;)&quot;"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +456,26 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,6 +600,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +898,7 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="95.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="105.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
@@ -737,19 +1037,31 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="8">
+        <v>43728</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>43728</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -777,97 +1089,185 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="8">
+        <v>43731</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43731</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
+      <c r="B11" s="8">
+        <v>43728</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43728</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="8">
+        <v>43731</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43731</v>
+      </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="8">
+        <v>43728</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43731</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43733</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="B15" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>43733</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="B16" s="8">
+        <v>43734</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8">
+        <v>43733</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
